--- a/Тест кейсы.xlsx
+++ b/Тест кейсы.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="g5" sheetId="2" r:id="rId1"/>
-    <sheet name="Гексагон" sheetId="3" r:id="rId2"/>
+    <sheet name="пример 1" sheetId="2" r:id="rId1"/>
+    <sheet name="пример 2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -847,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1327,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
